--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slit2-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slit2-Sdc1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.09783033333333334</v>
+        <v>0.2160193333333333</v>
       </c>
       <c r="H2">
-        <v>0.293491</v>
+        <v>0.648058</v>
       </c>
       <c r="I2">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="J2">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N2">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O2">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P2">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q2">
-        <v>0.2194143281415556</v>
+        <v>0.685643563838889</v>
       </c>
       <c r="R2">
-        <v>1.974728953274</v>
+        <v>6.170792074550001</v>
       </c>
       <c r="S2">
-        <v>0.0009754145260860656</v>
+        <v>0.003393151334047639</v>
       </c>
       <c r="T2">
-        <v>0.0009754145260860656</v>
+        <v>0.003393151334047639</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.09783033333333334</v>
+        <v>0.2160193333333333</v>
       </c>
       <c r="H3">
-        <v>0.293491</v>
+        <v>0.648058</v>
       </c>
       <c r="I3">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="J3">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>35.558846</v>
       </c>
       <c r="O3">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P3">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q3">
-        <v>1.159577919042889</v>
+        <v>2.560466069007556</v>
       </c>
       <c r="R3">
-        <v>10.436201271386</v>
+        <v>23.044194621068</v>
       </c>
       <c r="S3">
-        <v>0.00515494660692065</v>
+        <v>0.01267137812713167</v>
       </c>
       <c r="T3">
-        <v>0.00515494660692065</v>
+        <v>0.01267137812713167</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.09783033333333334</v>
+        <v>0.2160193333333333</v>
       </c>
       <c r="H4">
-        <v>0.293491</v>
+        <v>0.648058</v>
       </c>
       <c r="I4">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="J4">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N4">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O4">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P4">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q4">
-        <v>0.2993618635235556</v>
+        <v>0.1030510148764444</v>
       </c>
       <c r="R4">
-        <v>2.694256771712</v>
+        <v>0.9274591338880001</v>
       </c>
       <c r="S4">
-        <v>0.001330824257058932</v>
+        <v>0.0005099846436903689</v>
       </c>
       <c r="T4">
-        <v>0.001330824257058932</v>
+        <v>0.000509984643690369</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.09783033333333334</v>
+        <v>0.2160193333333333</v>
       </c>
       <c r="H5">
-        <v>0.293491</v>
+        <v>0.648058</v>
       </c>
       <c r="I5">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="J5">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N5">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O5">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P5">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q5">
-        <v>0.6530081158981111</v>
+        <v>1.571786407994889</v>
       </c>
       <c r="R5">
-        <v>5.877073043083</v>
+        <v>14.146077671954</v>
       </c>
       <c r="S5">
-        <v>0.002902971776246895</v>
+        <v>0.007778544754748128</v>
       </c>
       <c r="T5">
-        <v>0.002902971776246895</v>
+        <v>0.00777854475474813</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.09783033333333334</v>
+        <v>0.2160193333333333</v>
       </c>
       <c r="H6">
-        <v>0.293491</v>
+        <v>0.648058</v>
       </c>
       <c r="I6">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="J6">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N6">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O6">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P6">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q6">
-        <v>0.2454386968733334</v>
+        <v>0.1042167272055556</v>
       </c>
       <c r="R6">
-        <v>2.20894827186</v>
+        <v>0.9379505448500001</v>
       </c>
       <c r="S6">
-        <v>0.00109110682160844</v>
+        <v>0.000515753586262356</v>
       </c>
       <c r="T6">
-        <v>0.00109110682160844</v>
+        <v>0.0005157535862623561</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>24.890459</v>
       </c>
       <c r="I7">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377276</v>
       </c>
       <c r="J7">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377278</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N7">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O7">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P7">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q7">
-        <v>18.60814586689178</v>
+        <v>26.33403648183612</v>
       </c>
       <c r="R7">
-        <v>167.473312802026</v>
+        <v>237.006328336525</v>
       </c>
       <c r="S7">
-        <v>0.08272320197058732</v>
+        <v>0.1303233571083268</v>
       </c>
       <c r="T7">
-        <v>0.08272320197058732</v>
+        <v>0.1303233571083268</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>24.890459</v>
       </c>
       <c r="I8">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377276</v>
       </c>
       <c r="J8">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377278</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>35.558846</v>
       </c>
       <c r="O8">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P8">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q8">
         <v>98.34177760559045</v>
@@ -948,10 +948,10 @@
         <v>885.0759984503139</v>
       </c>
       <c r="S8">
-        <v>0.4371820163710217</v>
+        <v>0.4866793060912255</v>
       </c>
       <c r="T8">
-        <v>0.4371820163710217</v>
+        <v>0.4866793060912256</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>24.890459</v>
       </c>
       <c r="I9">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377276</v>
       </c>
       <c r="J9">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377278</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N9">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O9">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P9">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q9">
-        <v>25.38835667940978</v>
+        <v>3.957959103491555</v>
       </c>
       <c r="R9">
-        <v>228.495210114688</v>
+        <v>35.62163193142399</v>
       </c>
       <c r="S9">
-        <v>0.1128648803763346</v>
+        <v>0.01958737005700838</v>
       </c>
       <c r="T9">
-        <v>0.1128648803763346</v>
+        <v>0.01958737005700838</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>24.890459</v>
       </c>
       <c r="I10">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377276</v>
       </c>
       <c r="J10">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377278</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N10">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O10">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P10">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q10">
-        <v>55.38047754591855</v>
+        <v>60.36880209017411</v>
       </c>
       <c r="R10">
-        <v>498.4242979132669</v>
+        <v>543.319218811567</v>
       </c>
       <c r="S10">
-        <v>0.2461959650375327</v>
+        <v>0.2987565145368521</v>
       </c>
       <c r="T10">
-        <v>0.2461959650375327</v>
+        <v>0.2987565145368522</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>24.890459</v>
       </c>
       <c r="I11">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377276</v>
       </c>
       <c r="J11">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377278</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N11">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O11">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P11">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q11">
-        <v>20.81522711612666</v>
+        <v>4.002731508019444</v>
       </c>
       <c r="R11">
-        <v>187.33704404514</v>
+        <v>36.024583572175</v>
       </c>
       <c r="S11">
-        <v>0.09253486344680138</v>
+        <v>0.01980894224431476</v>
       </c>
       <c r="T11">
-        <v>0.09253486344680138</v>
+        <v>0.01980894224431476</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.142734</v>
+        <v>0.173491</v>
       </c>
       <c r="H12">
-        <v>0.428202</v>
+        <v>0.520473</v>
       </c>
       <c r="I12">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="J12">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N12">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O12">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P12">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q12">
-        <v>0.320124481292</v>
+        <v>0.5506589882416667</v>
       </c>
       <c r="R12">
-        <v>2.881120331628</v>
+        <v>4.955930894175</v>
       </c>
       <c r="S12">
-        <v>0.001423125243701188</v>
+        <v>0.002725132093556095</v>
       </c>
       <c r="T12">
-        <v>0.001423125243701188</v>
+        <v>0.002725132093556096</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.142734</v>
+        <v>0.173491</v>
       </c>
       <c r="H13">
-        <v>0.428202</v>
+        <v>0.520473</v>
       </c>
       <c r="I13">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="J13">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>35.558846</v>
       </c>
       <c r="O13">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P13">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q13">
-        <v>1.691818774988</v>
+        <v>2.056379917128667</v>
       </c>
       <c r="R13">
-        <v>15.226368974892</v>
+        <v>18.507419254158</v>
       </c>
       <c r="S13">
-        <v>0.007521043054051523</v>
+        <v>0.01017672829895256</v>
       </c>
       <c r="T13">
-        <v>0.007521043054051523</v>
+        <v>0.01017672829895256</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.142734</v>
+        <v>0.173491</v>
       </c>
       <c r="H14">
-        <v>0.428202</v>
+        <v>0.520473</v>
       </c>
       <c r="I14">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="J14">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N14">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O14">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P14">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q14">
-        <v>0.436767562496</v>
+        <v>0.08276307192533332</v>
       </c>
       <c r="R14">
-        <v>3.930908062464</v>
+        <v>0.7448676473279999</v>
       </c>
       <c r="S14">
-        <v>0.00194166638336831</v>
+        <v>0.0004095825334390708</v>
       </c>
       <c r="T14">
-        <v>0.00194166638336831</v>
+        <v>0.0004095825334390708</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.142734</v>
+        <v>0.173491</v>
       </c>
       <c r="H15">
-        <v>0.428202</v>
+        <v>0.520473</v>
       </c>
       <c r="I15">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="J15">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N15">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O15">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P15">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q15">
-        <v>0.952735795114</v>
+        <v>1.262344399927667</v>
       </c>
       <c r="R15">
-        <v>8.574622156025999</v>
+        <v>11.361099599349</v>
       </c>
       <c r="S15">
-        <v>0.004235422280521286</v>
+        <v>0.006247160785204444</v>
       </c>
       <c r="T15">
-        <v>0.004235422280521286</v>
+        <v>0.006247160785204446</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.142734</v>
+        <v>0.173491</v>
       </c>
       <c r="H16">
-        <v>0.428202</v>
+        <v>0.520473</v>
       </c>
       <c r="I16">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="J16">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N16">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O16">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P16">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q16">
-        <v>0.35809391388</v>
+        <v>0.08369928719166665</v>
       </c>
       <c r="R16">
-        <v>3.22284522492</v>
+        <v>0.753293584725</v>
       </c>
       <c r="S16">
-        <v>0.001591919763217193</v>
+        <v>0.0004142157280717577</v>
       </c>
       <c r="T16">
-        <v>0.001591919763217193</v>
+        <v>0.0004142157280717578</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.002823666666666667</v>
+        <v>2.5E-05</v>
       </c>
       <c r="H17">
-        <v>0.008470999999999999</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="I17">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156263E-06</v>
       </c>
       <c r="J17">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156264E-06</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N17">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O17">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P17">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q17">
-        <v>0.006332932777111111</v>
+        <v>7.934979166666667E-05</v>
       </c>
       <c r="R17">
-        <v>0.05699639499399999</v>
+        <v>0.000714148125</v>
       </c>
       <c r="S17">
-        <v>2.815328732559111E-05</v>
+        <v>3.926907006063853E-07</v>
       </c>
       <c r="T17">
-        <v>2.815328732559111E-05</v>
+        <v>3.926907006063853E-07</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.002823666666666667</v>
+        <v>2.5E-05</v>
       </c>
       <c r="H18">
-        <v>0.008470999999999999</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="I18">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156263E-06</v>
       </c>
       <c r="J18">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156264E-06</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>35.558846</v>
       </c>
       <c r="O18">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P18">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q18">
-        <v>0.03346877605177778</v>
+        <v>0.0002963237166666667</v>
       </c>
       <c r="R18">
-        <v>0.301218984466</v>
+        <v>0.00266691345</v>
       </c>
       <c r="S18">
-        <v>0.0001487866841137371</v>
+        <v>1.466463433110732E-06</v>
       </c>
       <c r="T18">
-        <v>0.0001487866841137371</v>
+        <v>1.466463433110732E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.002823666666666667</v>
+        <v>2.5E-05</v>
       </c>
       <c r="H19">
-        <v>0.008470999999999999</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="I19">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156263E-06</v>
       </c>
       <c r="J19">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156264E-06</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N19">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O19">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P19">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q19">
-        <v>0.008640450119111111</v>
+        <v>1.192613333333333E-05</v>
       </c>
       <c r="R19">
-        <v>0.077764051072</v>
+        <v>0.0001073352</v>
       </c>
       <c r="S19">
-        <v>3.841144117382207E-05</v>
+        <v>5.902071770856569E-08</v>
       </c>
       <c r="T19">
-        <v>3.841144117382207E-05</v>
+        <v>5.90207177085657E-08</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.002823666666666667</v>
+        <v>2.5E-05</v>
       </c>
       <c r="H20">
-        <v>0.008470999999999999</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="I20">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156263E-06</v>
       </c>
       <c r="J20">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156264E-06</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N20">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O20">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P20">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q20">
-        <v>0.01884770486922222</v>
+        <v>0.0001819034416666667</v>
       </c>
       <c r="R20">
-        <v>0.169629343823</v>
+        <v>0.001637130975</v>
       </c>
       <c r="S20">
-        <v>8.378817039223501E-05</v>
+        <v>9.002139570935156E-07</v>
       </c>
       <c r="T20">
-        <v>8.378817039223501E-05</v>
+        <v>9.002139570935158E-07</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.002823666666666667</v>
+        <v>2.5E-05</v>
       </c>
       <c r="H21">
-        <v>0.008470999999999999</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="I21">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156263E-06</v>
       </c>
       <c r="J21">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156264E-06</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N21">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O21">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P21">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q21">
-        <v>0.007084071406666666</v>
+        <v>1.206104166666667E-05</v>
       </c>
       <c r="R21">
-        <v>0.06375664266</v>
+        <v>0.000108549375</v>
       </c>
       <c r="S21">
-        <v>3.149250193649922E-05</v>
+        <v>5.968835963706443E-08</v>
       </c>
       <c r="T21">
-        <v>3.149250193649922E-05</v>
+        <v>5.968835963706444E-08</v>
       </c>
     </row>
   </sheetData>
